--- a/cbrunner/Parameters/LUT_bgc_zone.xlsx
+++ b/cbrunner/Parameters/LUT_bgc_zone.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA7806F-02DF-4586-861A-60BBCEA9673E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37A2B9F-9254-4A9F-AFCF-2487465EB2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -86,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +114,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -132,6 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -548,10 +568,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="C8" s="3">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -562,13 +582,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="C9" s="3">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -582,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -618,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D13" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -635,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -688,6 +708,9 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
